--- a/data/DFM预处理数据_17非移.xlsx
+++ b/data/DFM预处理数据_17非移.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIU\Desktop\HTFA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9783C87-7F0C-4B96-BE67-4055CED5077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960AF2D9-5E11-4224-943C-35E75F0CB461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-96" windowWidth="17472" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76653,7 +76653,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
